--- a/Network.xlsx
+++ b/Network.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cortbreuer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cortbreuer/Desktop/Storage/Cornell/Junior Spring 2021/CHEME 5440/Problem Sets/Problem Set 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6580A8D5-0B9A-FB4C-938B-F3FF5FC1BC49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1CC779-D0C0-8B4B-ABE1-43C0A878A1B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="1800" windowWidth="27640" windowHeight="16940" xr2:uid="{379B21F9-82EB-AF42-A745-AB6F00DAD8C8}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H3" sqref="H3:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,57 +575,198 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
       <c r="O3">
         <v>-1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4">
         <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
       <c r="L4">
         <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5">
         <v>-1</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
       <c r="M5">
         <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
       <c r="K6">
         <v>-1</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
       <c r="N6">
         <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
       <c r="L8">
         <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -641,38 +782,134 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
         <v>-1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
         <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
       </c>
       <c r="P12">
         <v>-2</v>
@@ -685,8 +922,29 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
       <c r="N13">
         <v>-1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -699,25 +957,100 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
         <v>-1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
       <c r="O15">
         <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
       <c r="P16">
         <v>-1</v>
       </c>
@@ -729,6 +1062,30 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
       <c r="P17">
         <v>-2</v>
       </c>
@@ -740,6 +1097,30 @@
       <c r="A18" t="s">
         <v>24</v>
       </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
       <c r="P18">
         <v>-1</v>
       </c>
@@ -751,6 +1132,30 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
       <c r="P19">
         <v>1</v>
       </c>
@@ -761,6 +1166,30 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
       </c>
       <c r="P20">
         <v>2</v>

--- a/Network.xlsx
+++ b/Network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cortbreuer/Desktop/Storage/Cornell/Junior Spring 2021/CHEME 5440/Problem Sets/Problem Set 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6DD0D8-18C5-FD49-B4BB-6F7CFBD09AC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F3E98A-D171-A847-B6D8-43E1E08A6FC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="1800" windowWidth="27640" windowHeight="16940" xr2:uid="{379B21F9-82EB-AF42-A745-AB6F00DAD8C8}"/>
+    <workbookView xWindow="1920" yWindow="3060" windowWidth="27640" windowHeight="16940" xr2:uid="{379B21F9-82EB-AF42-A745-AB6F00DAD8C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>b1</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>-v5</t>
   </si>
   <si>
     <t>Molecular Composition</t>
@@ -214,9 +211,6 @@
   </si>
   <si>
     <t>b19</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
@@ -575,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC1012-8B2A-0F43-BFCB-3CCC7650DDEE}">
   <dimension ref="A1:AG107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:Z65"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:Y65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,155 +579,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3">
-        <v>2</v>
-      </c>
-      <c r="AB3">
-        <v>2</v>
-      </c>
-      <c r="AC3">
-        <v>2</v>
-      </c>
-      <c r="AD3">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -743,22 +697,22 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -806,30 +760,13 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>-1</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
+        <f>SUM(B4:Y4)</f>
         <v>0</v>
       </c>
     </row>
@@ -838,16 +775,16 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -859,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -895,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -910,24 +847,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
+        <f t="shared" ref="Z5:Z22" si="0">SUM(B5:Y5)</f>
         <v>0</v>
       </c>
     </row>
@@ -936,16 +856,16 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -960,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -996,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1008,24 +928,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1034,16 +937,16 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1061,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1097,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1106,24 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>1</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1132,19 +1018,19 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1162,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1189,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1204,24 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1230,22 +1099,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1263,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1287,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1296,31 +1165,14 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AE9">
-        <v>-2</v>
-      </c>
-      <c r="AF9">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -1328,25 +1180,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1364,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1385,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1400,24 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1429,16 +1264,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1447,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1465,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1483,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1498,24 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1524,16 +1342,16 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1566,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1581,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1596,24 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1622,16 +1423,16 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1667,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1682,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -1694,42 +1495,25 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>-1</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1750,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1768,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1789,28 +1573,11 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>2</v>
-      </c>
-      <c r="AF14">
-        <v>-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
@@ -1821,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1851,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1869,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1881,34 +1648,17 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>-2</v>
-      </c>
-      <c r="AF15">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
@@ -1916,16 +1666,16 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1970,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1979,33 +1729,16 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AD16">
-        <v>-1</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2017,16 +1750,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2053,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2071,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2080,30 +1813,13 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2112,19 +1828,19 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2154,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2172,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2181,28 +1897,11 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
@@ -2219,88 +1918,71 @@
         <v>0</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>-2</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
       <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>2</v>
-      </c>
-      <c r="AF19">
-        <v>-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
@@ -2311,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2356,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2374,31 +2056,14 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
@@ -2406,19 +2071,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2457,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2475,28 +2140,11 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>-1</v>
-      </c>
-      <c r="AF21">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
@@ -2510,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2558,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2573,33 +2221,16 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>-2</v>
-      </c>
-      <c r="AF22">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2634,22 +2265,22 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
         <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>49</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -2667,58 +2298,58 @@
         <v>8</v>
       </c>
       <c r="M24" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" t="s">
         <v>53</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>54</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>55</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>56</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" t="s">
+        <v>47</v>
+      </c>
+      <c r="T24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" t="s">
+        <v>32</v>
+      </c>
+      <c r="W24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y24" t="s">
         <v>57</v>
       </c>
-      <c r="R24" t="s">
+      <c r="Z24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC24" t="s">
         <v>30</v>
       </c>
-      <c r="S24" t="s">
+      <c r="AD24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE24" t="s">
         <v>48</v>
-      </c>
-      <c r="T24" t="s">
-        <v>32</v>
-      </c>
-      <c r="U24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V24" t="s">
-        <v>33</v>
-      </c>
-      <c r="W24" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
@@ -2763,70 +2394,70 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:P40" si="0">2*I25</f>
+        <f t="shared" ref="N25:P40" si="1">2*I25</f>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <f>B25*($M25+$N25+$O25+$P25+$Q25)</f>
+        <f t="shared" ref="R25:W25" si="2">B25*($M25+$N25+$O25+$P25+$Q25)</f>
         <v>-2</v>
       </c>
       <c r="S25">
-        <f>C25*($M25+$N25+$O25+$P25+$Q25)</f>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="T25">
-        <f>D25*($M25+$N25+$O25+$P25+$Q25)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="U25">
-        <f>E25*($M25+$N25+$O25+$P25+$Q25)</f>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="V25">
-        <f>F25*($M25+$N25+$O25+$P25+$Q25)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="W25">
-        <f>G25*($M25+$N25+$O25+$P25+$Q25)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f>SUM(M25:Q25)</f>
+        <f t="shared" ref="Y25:Y43" si="3">SUM(M25:Q25)</f>
         <v>-2</v>
       </c>
       <c r="Z25">
-        <f>$Y25*B25</f>
+        <f t="shared" ref="Z25:Z43" si="4">$Y25*B25</f>
         <v>-2</v>
       </c>
       <c r="AA25">
-        <f>$Y25*C25</f>
+        <f t="shared" ref="AA25:AA43" si="5">$Y25*C25</f>
         <v>-8</v>
       </c>
       <c r="AB25">
-        <f>$Y25*D25</f>
+        <f t="shared" ref="AB25:AB43" si="6">$Y25*D25</f>
         <v>-2</v>
       </c>
       <c r="AC25">
-        <f>$Y25*E25</f>
+        <f t="shared" ref="AC25:AC43" si="7">$Y25*E25</f>
         <v>-10</v>
       </c>
       <c r="AD25">
-        <f>$Y25*F25</f>
+        <f t="shared" ref="AD25:AD43" si="8">$Y25*F25</f>
         <v>-2</v>
       </c>
       <c r="AE25">
-        <f>$Y25*G25</f>
+        <f t="shared" ref="AE25:AE43" si="9">$Y25*G25</f>
         <v>0</v>
       </c>
     </row>
@@ -2868,74 +2499,74 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26:M43" si="1">2*H26</f>
+        <f t="shared" ref="M26:M43" si="10">2*H26</f>
         <v>-2</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" ref="R26:U43" si="2">B26*($M26+$N26+$O26+$P26+$Q26)</f>
+        <f t="shared" ref="R26:U43" si="11">B26*($M26+$N26+$O26+$P26+$Q26)</f>
         <v>-8</v>
       </c>
       <c r="S26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-14</v>
       </c>
       <c r="T26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="U26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-8</v>
       </c>
       <c r="V26">
-        <f t="shared" ref="V26:V43" si="3">F26*($M26+$N26+$O26+$P26+$Q26)</f>
+        <f t="shared" ref="V26:V43" si="12">F26*($M26+$N26+$O26+$P26+$Q26)</f>
         <v>0</v>
       </c>
       <c r="W26">
-        <f t="shared" ref="W26:W43" si="4">G26*($M26+$N26+$O26+$P26+$Q26)</f>
+        <f t="shared" ref="W26:W43" si="13">G26*($M26+$N26+$O26+$P26+$Q26)</f>
         <v>0</v>
       </c>
       <c r="Y26">
-        <f>SUM(M26:Q26)</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="Z26">
-        <f>$Y26*B26</f>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="AA26">
-        <f>$Y26*C26</f>
+        <f t="shared" si="5"/>
         <v>-14</v>
       </c>
       <c r="AB26">
-        <f>$Y26*D26</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="AC26">
-        <f>$Y26*E26</f>
+        <f t="shared" si="7"/>
         <v>-8</v>
       </c>
       <c r="AD26">
-        <f>$Y26*F26</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE26">
-        <f>$Y26*G26</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2977,74 +2608,74 @@
         <v>0</v>
       </c>
       <c r="M27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="S27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="T27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="V27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="Z27">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <f>SUM(M27:Q27)</f>
-        <v>2</v>
-      </c>
-      <c r="Z27">
-        <f>$Y27*B27</f>
         <v>8</v>
       </c>
       <c r="AA27">
-        <f>$Y27*C27</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AB27">
-        <f>$Y27*D27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC27">
-        <f>$Y27*E27</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="AD27">
-        <f>$Y27*F27</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE27">
-        <f>$Y27*G27</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3086,74 +2717,74 @@
         <v>0</v>
       </c>
       <c r="M28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="O28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="S28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="T28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="U28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="V28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="Z28">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <f>SUM(M28:Q28)</f>
         <v>2</v>
       </c>
-      <c r="Z28">
-        <f>$Y28*B28</f>
+      <c r="AA28">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AA28">
-        <f>$Y28*C28</f>
-        <v>8</v>
-      </c>
-      <c r="AB28">
-        <f>$Y28*D28</f>
-        <v>4</v>
-      </c>
-      <c r="AC28">
-        <f>$Y28*E28</f>
-        <v>2</v>
-      </c>
       <c r="AD28">
-        <f>$Y28*F28</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE28">
-        <f>$Y28*G28</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3195,74 +2826,74 @@
         <v>0</v>
       </c>
       <c r="M29">
+        <f t="shared" si="10"/>
+        <v>-2</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="11"/>
+        <v>-20</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="11"/>
+        <v>-32</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="11"/>
+        <v>-26</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="12"/>
+        <v>-6</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="2"/>
+      <c r="Z29">
+        <f t="shared" si="4"/>
         <v>-20</v>
       </c>
-      <c r="S29">
-        <f t="shared" si="2"/>
+      <c r="AA29">
+        <f t="shared" si="5"/>
         <v>-32</v>
       </c>
-      <c r="T29">
-        <f t="shared" si="2"/>
+      <c r="AB29">
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
-      <c r="U29">
-        <f t="shared" si="2"/>
+      <c r="AC29">
+        <f t="shared" si="7"/>
         <v>-26</v>
       </c>
-      <c r="V29">
-        <f t="shared" si="3"/>
+      <c r="AD29">
+        <f t="shared" si="8"/>
         <v>-6</v>
       </c>
-      <c r="W29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <f>SUM(M29:Q29)</f>
-        <v>-2</v>
-      </c>
-      <c r="Z29">
-        <f>$Y29*B29</f>
-        <v>-20</v>
-      </c>
-      <c r="AA29">
-        <f>$Y29*C29</f>
-        <v>-32</v>
-      </c>
-      <c r="AB29">
-        <f>$Y29*D29</f>
-        <v>-10</v>
-      </c>
-      <c r="AC29">
-        <f>$Y29*E29</f>
-        <v>-26</v>
-      </c>
-      <c r="AD29">
-        <f>$Y29*F29</f>
-        <v>-6</v>
-      </c>
       <c r="AE29">
-        <f>$Y29*G29</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3304,74 +2935,74 @@
         <v>-2</v>
       </c>
       <c r="M30">
+        <f t="shared" si="10"/>
+        <v>-2</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q30">
         <v>-2</v>
       </c>
       <c r="R30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-12</v>
       </c>
       <c r="S30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-26</v>
       </c>
       <c r="T30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-6</v>
       </c>
       <c r="U30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-6</v>
       </c>
       <c r="V30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W30">
+        <v>-2</v>
+      </c>
+      <c r="Z30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <f>SUM(M30:Q30)</f>
-        <v>-2</v>
-      </c>
-      <c r="Z30">
-        <f>$Y30*B30</f>
         <v>-12</v>
       </c>
       <c r="AA30">
-        <f>$Y30*C30</f>
+        <f t="shared" si="5"/>
         <v>-26</v>
       </c>
       <c r="AB30">
-        <f>$Y30*D30</f>
+        <f t="shared" si="6"/>
         <v>-6</v>
       </c>
       <c r="AC30">
-        <f>$Y30*E30</f>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="AD30">
-        <f>$Y30*F30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE30">
-        <f>$Y30*G30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3413,74 +3044,74 @@
         <v>0</v>
       </c>
       <c r="M31">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="N31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="V31">
+      <c r="W31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="W31">
+      <c r="Z31">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <f>SUM(M31:Q31)</f>
+        <v>20</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="Z31">
-        <f>$Y31*B31</f>
-        <v>20</v>
-      </c>
-      <c r="AA31">
-        <f>$Y31*C31</f>
-        <v>28</v>
-      </c>
-      <c r="AB31">
-        <f>$Y31*D31</f>
-        <v>10</v>
-      </c>
-      <c r="AC31">
-        <f>$Y31*E31</f>
-        <v>14</v>
-      </c>
-      <c r="AD31">
-        <f>$Y31*F31</f>
-        <v>2</v>
-      </c>
       <c r="AE31">
-        <f>$Y31*G31</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3522,74 +3153,74 @@
         <v>0</v>
       </c>
       <c r="M32">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="N32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="2"/>
+      <c r="Z32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="T32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="2"/>
+      <c r="AB32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="V32">
-        <f t="shared" si="3"/>
+      <c r="AD32">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="W32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <f>SUM(M32:Q32)</f>
-        <v>2</v>
-      </c>
-      <c r="Z32">
-        <f>$Y32*B32</f>
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <f>$Y32*C32</f>
-        <v>8</v>
-      </c>
-      <c r="AB32">
-        <f>$Y32*D32</f>
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <f>$Y32*E32</f>
-        <v>14</v>
-      </c>
-      <c r="AD32">
-        <f>$Y32*F32</f>
-        <v>4</v>
-      </c>
       <c r="AE32">
-        <f>$Y32*G32</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3631,74 +3262,74 @@
         <v>0</v>
       </c>
       <c r="M33">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="O33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W33">
+      <c r="Z33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y33">
-        <f>SUM(M33:Q33)</f>
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <f>$Y33*B33</f>
-        <v>0</v>
-      </c>
       <c r="AA33">
-        <f>$Y33*C33</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB33">
-        <f>$Y33*D33</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC33">
-        <f>$Y33*E33</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD33">
-        <f>$Y33*F33</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE33">
-        <f>$Y33*G33</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3740,80 +3371,80 @@
         <v>0</v>
       </c>
       <c r="M34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W34">
+      <c r="Z34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y34">
-        <f>SUM(M34:Q34)</f>
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <f>$Y34*B34</f>
-        <v>0</v>
-      </c>
       <c r="AA34">
-        <f>$Y34*C34</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB34">
-        <f>$Y34*D34</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC34">
-        <f>$Y34*E34</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD34">
-        <f>$Y34*F34</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE34">
-        <f>$Y34*G34</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -3849,74 +3480,74 @@
         <v>2</v>
       </c>
       <c r="M35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="O35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q35">
         <v>2</v>
       </c>
       <c r="R35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="S35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="T35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="U35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="V35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W35">
+        <v>2</v>
+      </c>
+      <c r="Z35">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <f>SUM(M35:Q35)</f>
-        <v>2</v>
-      </c>
-      <c r="Z35">
-        <f>$Y35*B35</f>
         <v>12</v>
       </c>
       <c r="AA35">
-        <f>$Y35*C35</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="AB35">
-        <f>$Y35*D35</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AC35">
-        <f>$Y35*E35</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AD35">
-        <f>$Y35*F35</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE35">
-        <f>$Y35*G35</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3958,74 +3589,74 @@
         <v>-2</v>
       </c>
       <c r="M36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="O36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q36">
         <v>-2</v>
       </c>
       <c r="R36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-8</v>
       </c>
       <c r="T36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-4</v>
       </c>
       <c r="V36">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W36">
+        <v>-4</v>
+      </c>
+      <c r="Z36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y36">
-        <f>SUM(M36:Q36)</f>
+      <c r="AA36">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
-      <c r="Z36">
-        <f>$Y36*B36</f>
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <f>$Y36*C36</f>
-        <v>-8</v>
-      </c>
-      <c r="AB36">
-        <f>$Y36*D36</f>
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <f>$Y36*E36</f>
-        <v>-4</v>
-      </c>
       <c r="AD36">
-        <f>$Y36*F36</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE36">
-        <f>$Y36*G36</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4067,74 +3698,74 @@
         <v>0</v>
       </c>
       <c r="M37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="O37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W37">
+      <c r="Z37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y37">
-        <f>SUM(M37:Q37)</f>
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <f>$Y37*B37</f>
-        <v>0</v>
-      </c>
       <c r="AA37">
-        <f>$Y37*C37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB37">
-        <f>$Y37*D37</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC37">
-        <f>$Y37*E37</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD37">
-        <f>$Y37*F37</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE37">
-        <f>$Y37*G37</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4176,74 +3807,74 @@
         <v>0</v>
       </c>
       <c r="M38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="O38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="T38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="V38">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="W38">
+      <c r="Z38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y38">
-        <f>SUM(M38:Q38)</f>
+      <c r="AA38">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="Z38">
-        <f>$Y38*B38</f>
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <f>$Y38*C38</f>
-        <v>6</v>
-      </c>
-      <c r="AB38">
-        <f>$Y38*D38</f>
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <f>$Y38*E38</f>
-        <v>8</v>
-      </c>
-      <c r="AD38">
-        <f>$Y38*F38</f>
-        <v>2</v>
-      </c>
       <c r="AE38">
-        <f>$Y38*G38</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4285,74 +3916,74 @@
         <v>1</v>
       </c>
       <c r="M39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="O39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="S39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="T39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="U39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="V39">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="W39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <f>SUM(M39:Q39)</f>
-        <v>1</v>
-      </c>
-      <c r="Z39">
-        <f>$Y39*B39</f>
-        <v>21</v>
-      </c>
-      <c r="AA39">
-        <f>$Y39*C39</f>
-        <v>30</v>
-      </c>
-      <c r="AB39">
-        <f>$Y39*D39</f>
-        <v>7</v>
-      </c>
-      <c r="AC39">
-        <f>$Y39*E39</f>
-        <v>17</v>
-      </c>
-      <c r="AD39">
-        <f>$Y39*F39</f>
-        <v>3</v>
-      </c>
       <c r="AE39">
-        <f>$Y39*G39</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4394,74 +4025,74 @@
         <v>2</v>
       </c>
       <c r="M40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="O40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q40">
         <v>2</v>
       </c>
       <c r="R40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="V40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="Z40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y40">
-        <f>SUM(M40:Q40)</f>
-        <v>2</v>
-      </c>
-      <c r="Z40">
-        <f>$Y40*B40</f>
-        <v>0</v>
-      </c>
       <c r="AA40">
-        <f>$Y40*C40</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB40">
-        <f>$Y40*D40</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC40">
-        <f>$Y40*E40</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AD40">
-        <f>$Y40*F40</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE40">
-        <f>$Y40*G40</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4503,74 +4134,74 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" ref="N41:N43" si="5">2*I41</f>
+        <f t="shared" ref="N41:N43" si="14">2*I41</f>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" ref="O41:O43" si="6">2*J41</f>
+        <f t="shared" ref="O41:O43" si="15">2*J41</f>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" ref="P41:P43" si="7">2*K41</f>
+        <f t="shared" ref="P41:P43" si="16">2*K41</f>
         <v>0</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="T41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y41">
-        <f>SUM(M41:Q41)</f>
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <f>$Y41*B41</f>
-        <v>0</v>
-      </c>
       <c r="AA41">
-        <f>$Y41*C41</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB41">
-        <f>$Y41*D41</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC41">
-        <f>$Y41*E41</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD41">
-        <f>$Y41*F41</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE41">
-        <f>$Y41*G41</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4612,74 +4243,74 @@
         <v>-1</v>
       </c>
       <c r="M42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q42">
         <v>-1</v>
       </c>
       <c r="R42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-21</v>
       </c>
       <c r="S42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-29</v>
       </c>
       <c r="T42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-7</v>
       </c>
       <c r="U42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-17</v>
       </c>
       <c r="V42">
+        <f t="shared" si="12"/>
+        <v>-3</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
         <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="5"/>
+        <v>-29</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="7"/>
+        <v>-17</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="8"/>
         <v>-3</v>
       </c>
-      <c r="W42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <f>SUM(M42:Q42)</f>
-        <v>-1</v>
-      </c>
-      <c r="Z42">
-        <f>$Y42*B42</f>
-        <v>-21</v>
-      </c>
-      <c r="AA42">
-        <f>$Y42*C42</f>
-        <v>-29</v>
-      </c>
-      <c r="AB42">
-        <f>$Y42*D42</f>
-        <v>-7</v>
-      </c>
-      <c r="AC42">
-        <f>$Y42*E42</f>
-        <v>-17</v>
-      </c>
-      <c r="AD42">
-        <f>$Y42*F42</f>
-        <v>-3</v>
-      </c>
       <c r="AE42">
-        <f>$Y42*G42</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4721,95 +4352,95 @@
         <v>-2</v>
       </c>
       <c r="M43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q43">
         <v>-2</v>
       </c>
       <c r="R43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="U43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="V43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W43">
+        <v>-2</v>
+      </c>
+      <c r="Z43">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y43">
-        <f>SUM(M43:Q43)</f>
+      <c r="AA43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="Z43">
-        <f>$Y43*B43</f>
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <f>$Y43*C43</f>
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <f>$Y43*D43</f>
+      <c r="AC43">
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="AC43">
-        <f>$Y43*E43</f>
-        <v>-2</v>
-      </c>
       <c r="AD43">
-        <f>$Y43*F43</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f>$Y43*G43</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R44">
         <f>SUM(R25:R43)</f>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="shared" ref="R44:U44" si="8">SUM(S25:S43)</f>
+        <f t="shared" ref="S44:U44" si="17">SUM(S25:S43)</f>
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V44">
@@ -4825,29 +4456,29 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <f t="shared" ref="AA44:AE44" si="9">SUM(AA25:AA43)</f>
+        <f t="shared" ref="AA44:AE44" si="18">SUM(AA25:AA43)</f>
         <v>0</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>60</v>
+      <c r="B47">
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4913,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -4981,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -5061,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W49">
         <v>0</v>
@@ -5141,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -5212,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5247,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5289,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5298,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y52">
         <v>-2</v>
@@ -5327,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -5366,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -5407,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -5443,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5487,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5520,10 +5151,10 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V55">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -5567,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5600,10 +5231,10 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W56">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>0</v>
@@ -5647,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -5727,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -5757,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>0</v>
@@ -5807,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -5834,10 +5465,10 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X59">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -5887,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -5914,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -5967,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6047,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -6127,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -6287,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="T65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -6311,9 +5942,7 @@
     <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:AF1"/>
+  <mergeCells count="1">
     <mergeCell ref="B23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Network.xlsx
+++ b/Network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cortbreuer/Desktop/Storage/Cornell/Junior Spring 2021/CHEME 5440/Problem Sets/Problem Set 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F3E98A-D171-A847-B6D8-43E1E08A6FC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35061D4-07D7-EE41-84D6-9880F10EAEFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="3060" windowWidth="27640" windowHeight="16940" xr2:uid="{379B21F9-82EB-AF42-A745-AB6F00DAD8C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>b1</t>
   </si>
@@ -171,12 +171,6 @@
     <t>b16</t>
   </si>
   <si>
-    <t>b17</t>
-  </si>
-  <si>
-    <t>b18</t>
-  </si>
-  <si>
     <t>Hydrogen</t>
   </si>
   <si>
@@ -209,18 +203,21 @@
   <si>
     <t>Net Reactions</t>
   </si>
-  <si>
-    <t>b19</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -569,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC1012-8B2A-0F43-BFCB-3CCC7650DDEE}">
   <dimension ref="A1:AG107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:Y65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,37 +654,28 @@
         <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="U2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="1"/>
+      <c r="W2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -751,23 +739,14 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <f>SUM(B4:Y4)</f>
-        <v>0</v>
+        <f>SUM(R4:V4)</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -823,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -832,23 +811,14 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" ref="Z5:Z22" si="0">SUM(B5:Y5)</f>
-        <v>0</v>
+        <f t="shared" ref="W5:W22" si="0">SUM(R5:V5)</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -907,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -916,20 +886,11 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -991,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1000,17 +961,8 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -1066,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1075,23 +1027,14 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -1114,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1147,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1156,23 +1099,14 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
+        <f t="shared" si="0"/>
         <v>-2</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -1198,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1228,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1237,23 +1171,14 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -1282,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1309,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1318,23 +1243,14 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
@@ -1390,30 +1306,21 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1474,34 +1381,25 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>-1</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1528,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1564,20 +1462,11 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
@@ -1612,13 +1501,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1639,26 +1528,17 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>-2</v>
-      </c>
-      <c r="Z15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
@@ -1720,25 +1600,16 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="0"/>
+        <f>SUM(R16:V16)</f>
         <v>0</v>
       </c>
     </row>
@@ -1777,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1786,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1804,23 +1675,14 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
@@ -1861,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1870,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1888,20 +1750,11 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
@@ -1945,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1954,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -1969,20 +1822,11 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
@@ -2029,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2038,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2050,20 +1894,11 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
@@ -2113,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2122,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2131,20 +1966,11 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
@@ -2197,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2206,26 +2032,17 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
+        <f t="shared" si="0"/>
         <v>-2</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
@@ -2268,7 +2085,7 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -2280,7 +2097,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -2298,25 +2115,25 @@
         <v>8</v>
       </c>
       <c r="M24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" t="s">
         <v>52</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>53</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>54</v>
-      </c>
-      <c r="P24" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>56</v>
       </c>
       <c r="R24" t="s">
         <v>29</v>
       </c>
       <c r="S24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s">
         <v>31</v>
@@ -2328,16 +2145,16 @@
         <v>32</v>
       </c>
       <c r="W24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z24" t="s">
         <v>29</v>
       </c>
       <c r="AA24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB24" t="s">
         <v>31</v>
@@ -2349,7 +2166,7 @@
         <v>32</v>
       </c>
       <c r="AE24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
@@ -2390,74 +2207,74 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <f>2*H25</f>
+        <f>H25</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:P40" si="1">2*I25</f>
+        <f>I25</f>
         <v>0</v>
       </c>
       <c r="O25">
+        <f>J25</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f>K25</f>
+        <v>-1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R25:W25" si="1">B25*($M25+$N25+$O25+$P25+$Q25)</f>
+        <v>-1</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P25">
+        <v>-4</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f t="shared" ref="R25:W25" si="2">B25*($M25+$N25+$O25+$P25+$Q25)</f>
-        <v>-2</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U25">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+        <f t="shared" si="1"/>
+        <v>-5</v>
       </c>
       <c r="V25">
-        <f t="shared" si="2"/>
-        <v>-2</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="W25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f t="shared" ref="Y25:Y43" si="3">SUM(M25:Q25)</f>
-        <v>-2</v>
+        <f t="shared" ref="Y25:Y43" si="2">SUM(M25:Q25)</f>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <f t="shared" ref="Z25:Z43" si="4">$Y25*B25</f>
-        <v>-2</v>
+        <f t="shared" ref="Z25:Z43" si="3">$Y25*B25</f>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <f t="shared" ref="AA25:AA43" si="5">$Y25*C25</f>
-        <v>-8</v>
+        <f t="shared" ref="AA25:AA43" si="4">$Y25*C25</f>
+        <v>-4</v>
       </c>
       <c r="AB25">
-        <f t="shared" ref="AB25:AB43" si="6">$Y25*D25</f>
-        <v>-2</v>
+        <f t="shared" ref="AB25:AB43" si="5">$Y25*D25</f>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <f t="shared" ref="AC25:AC43" si="7">$Y25*E25</f>
-        <v>-10</v>
+        <f t="shared" ref="AC25:AC43" si="6">$Y25*E25</f>
+        <v>-5</v>
       </c>
       <c r="AD25">
-        <f t="shared" ref="AD25:AD43" si="8">$Y25*F25</f>
-        <v>-2</v>
+        <f t="shared" ref="AD25:AD43" si="7">$Y25*F25</f>
+        <v>-1</v>
       </c>
       <c r="AE25">
-        <f t="shared" ref="AE25:AE43" si="9">$Y25*G25</f>
+        <f t="shared" ref="AE25:AE43" si="8">$Y25*G25</f>
         <v>0</v>
       </c>
     </row>
@@ -2499,74 +2316,74 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26:M43" si="10">2*H26</f>
-        <v>-2</v>
+        <f t="shared" ref="M26:M43" si="9">H26</f>
+        <v>-1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N26:N43" si="10">I26</f>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O26:O43" si="11">J26</f>
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P26:P43" si="12">K26</f>
         <v>0</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" ref="R26:U43" si="11">B26*($M26+$N26+$O26+$P26+$Q26)</f>
-        <v>-8</v>
+        <f t="shared" ref="R26:U43" si="13">B26*($M26+$N26+$O26+$P26+$Q26)</f>
+        <v>-4</v>
       </c>
       <c r="S26">
-        <f t="shared" si="11"/>
-        <v>-14</v>
+        <f t="shared" si="13"/>
+        <v>-7</v>
       </c>
       <c r="T26">
-        <f t="shared" si="11"/>
-        <v>-2</v>
+        <f t="shared" si="13"/>
+        <v>-1</v>
       </c>
       <c r="U26">
-        <f t="shared" si="11"/>
-        <v>-8</v>
+        <f t="shared" si="13"/>
+        <v>-4</v>
       </c>
       <c r="V26">
-        <f t="shared" ref="V26:V43" si="12">F26*($M26+$N26+$O26+$P26+$Q26)</f>
+        <f t="shared" ref="V26:V43" si="14">F26*($M26+$N26+$O26+$P26+$Q26)</f>
         <v>0</v>
       </c>
       <c r="W26">
-        <f t="shared" ref="W26:W43" si="13">G26*($M26+$N26+$O26+$P26+$Q26)</f>
+        <f t="shared" ref="W26:W43" si="15">G26*($M26+$N26+$O26+$P26+$Q26)</f>
         <v>0</v>
       </c>
       <c r="Y26">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Z26">
         <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="Z26">
+        <v>-4</v>
+      </c>
+      <c r="AA26">
         <f t="shared" si="4"/>
-        <v>-8</v>
-      </c>
-      <c r="AA26">
+        <v>-7</v>
+      </c>
+      <c r="AB26">
         <f t="shared" si="5"/>
-        <v>-14</v>
-      </c>
-      <c r="AB26">
+        <v>-1</v>
+      </c>
+      <c r="AC26">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="AC26">
+        <v>-4</v>
+      </c>
+      <c r="AD26">
         <f t="shared" si="7"/>
-        <v>-8</v>
-      </c>
-      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2608,74 +2425,74 @@
         <v>0</v>
       </c>
       <c r="M27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="S27">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="T27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U27">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="V27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z27">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z27">
+        <v>4</v>
+      </c>
+      <c r="AA27">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="AA27">
+        <v>4</v>
+      </c>
+      <c r="AB27">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC27">
+        <v>4</v>
+      </c>
+      <c r="AD27">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2717,74 +2534,74 @@
         <v>0</v>
       </c>
       <c r="M28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="O28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="11"/>
+      <c r="U28">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="S28">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="AB28">
+      <c r="AC28">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2826,74 +2643,74 @@
         <v>0</v>
       </c>
       <c r="M29">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="10"/>
-        <v>-2</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="11"/>
-        <v>-20</v>
+        <f t="shared" si="13"/>
+        <v>-10</v>
       </c>
       <c r="S29">
-        <f t="shared" si="11"/>
-        <v>-32</v>
+        <f t="shared" si="13"/>
+        <v>-16</v>
       </c>
       <c r="T29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="13"/>
+        <v>-13</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="14"/>
+        <v>-3</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
-      <c r="U29">
-        <f t="shared" si="11"/>
-        <v>-26</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="12"/>
-        <v>-6</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="Z29">
+      <c r="AA29">
         <f t="shared" si="4"/>
-        <v>-20</v>
-      </c>
-      <c r="AA29">
+        <v>-16</v>
+      </c>
+      <c r="AB29">
         <f t="shared" si="5"/>
-        <v>-32</v>
-      </c>
-      <c r="AB29">
+        <v>-5</v>
+      </c>
+      <c r="AC29">
         <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="AC29">
+        <v>-13</v>
+      </c>
+      <c r="AD29">
         <f t="shared" si="7"/>
-        <v>-26</v>
-      </c>
-      <c r="AD29">
+        <v>-3</v>
+      </c>
+      <c r="AE29">
         <f t="shared" si="8"/>
-        <v>-6</v>
-      </c>
-      <c r="AE29">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2935,74 +2752,74 @@
         <v>-2</v>
       </c>
       <c r="M30">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="10"/>
-        <v>-2</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>K30</f>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>-2</v>
       </c>
       <c r="R30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-12</v>
       </c>
       <c r="S30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-26</v>
       </c>
       <c r="T30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-6</v>
       </c>
       <c r="U30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-6</v>
       </c>
       <c r="V30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y30">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="Z30">
         <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="Z30">
+        <v>-12</v>
+      </c>
+      <c r="AA30">
         <f t="shared" si="4"/>
-        <v>-12</v>
-      </c>
-      <c r="AA30">
+        <v>-26</v>
+      </c>
+      <c r="AB30">
         <f t="shared" si="5"/>
-        <v>-26</v>
-      </c>
-      <c r="AB30">
+        <v>-6</v>
+      </c>
+      <c r="AC30">
         <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <f t="shared" si="7"/>
-        <v>-6</v>
-      </c>
-      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3044,74 +2861,74 @@
         <v>0</v>
       </c>
       <c r="M31">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="1"/>
+        <f>K31</f>
         <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="11"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="S31">
-        <f t="shared" si="11"/>
-        <v>28</v>
+        <f t="shared" si="13"/>
+        <v>14</v>
       </c>
       <c r="T31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="U31">
-        <f t="shared" si="11"/>
+      <c r="AA31">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="V31">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="AA31">
+      <c r="AB31">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="AB31">
+        <v>5</v>
+      </c>
+      <c r="AC31">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AC31">
+        <v>7</v>
+      </c>
+      <c r="AD31">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AE31">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3153,74 +2970,74 @@
         <v>0</v>
       </c>
       <c r="M32">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="12"/>
+      <c r="W32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="W32">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="3"/>
+      <c r="AB32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="Z32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="AD32">
+      <c r="AE32">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AE32">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3262,74 +3079,74 @@
         <v>0</v>
       </c>
       <c r="M33">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3371,80 +3188,80 @@
         <v>0</v>
       </c>
       <c r="M34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+        <f t="shared" si="11"/>
+        <v>-1</v>
       </c>
       <c r="P34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -3480,74 +3297,74 @@
         <v>2</v>
       </c>
       <c r="M35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="O35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q35">
         <v>2</v>
       </c>
       <c r="R35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="S35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="T35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="U35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="V35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z35">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z35">
+        <v>12</v>
+      </c>
+      <c r="AA35">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="AA35">
+        <v>28</v>
+      </c>
+      <c r="AB35">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="AB35">
+        <v>8</v>
+      </c>
+      <c r="AC35">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AC35">
+        <v>6</v>
+      </c>
+      <c r="AD35">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3589,74 +3406,74 @@
         <v>-2</v>
       </c>
       <c r="M36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="O36">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+        <f t="shared" si="11"/>
+        <v>-1</v>
       </c>
       <c r="P36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q36">
         <v>-2</v>
       </c>
       <c r="R36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S36">
-        <f t="shared" si="11"/>
-        <v>-8</v>
+        <f t="shared" si="13"/>
+        <v>-6</v>
       </c>
       <c r="T36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U36">
-        <f t="shared" si="11"/>
-        <v>-4</v>
+        <f t="shared" si="13"/>
+        <v>-3</v>
       </c>
       <c r="V36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y36">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="Z36">
         <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA36">
+        <v>-6</v>
+      </c>
+      <c r="AB36">
         <f t="shared" si="5"/>
-        <v>-8</v>
-      </c>
-      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC36">
+        <v>-3</v>
+      </c>
+      <c r="AD36">
         <f t="shared" si="7"/>
-        <v>-4</v>
-      </c>
-      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3698,74 +3515,74 @@
         <v>0</v>
       </c>
       <c r="M37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="O37">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="P37">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+        <f t="shared" si="12"/>
+        <v>-1</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3807,74 +3624,74 @@
         <v>0</v>
       </c>
       <c r="M38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="O38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S38">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="T38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U38">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="V38">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="W38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z38">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA38">
+        <v>3</v>
+      </c>
+      <c r="AB38">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC38">
+        <v>4</v>
+      </c>
+      <c r="AD38">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3916,74 +3733,74 @@
         <v>1</v>
       </c>
       <c r="M39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="O39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="S39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="T39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="U39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="V39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="W39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z39">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z39">
+        <v>21</v>
+      </c>
+      <c r="AA39">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="AA39">
+        <v>30</v>
+      </c>
+      <c r="AB39">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="AB39">
+        <v>7</v>
+      </c>
+      <c r="AC39">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="AC39">
+        <v>17</v>
+      </c>
+      <c r="AD39">
         <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="AD39">
+        <v>3</v>
+      </c>
+      <c r="AE39">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AE39">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4025,74 +3842,74 @@
         <v>2</v>
       </c>
       <c r="M40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="O40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q40">
         <v>2</v>
       </c>
       <c r="R40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="V40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z40">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC40">
+        <v>4</v>
+      </c>
+      <c r="AD40">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4134,74 +3951,74 @@
         <v>1</v>
       </c>
       <c r="M41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N41">
-        <f t="shared" ref="N41:N43" si="14">2*I41</f>
-        <v>0</v>
-      </c>
       <c r="O41">
-        <f t="shared" ref="O41:O43" si="15">2*J41</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" ref="P41:P43" si="16">2*K41</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="T41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z41">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4243,74 +4060,74 @@
         <v>-1</v>
       </c>
       <c r="M42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N42">
+      <c r="O42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>-1</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="13"/>
+        <v>-21</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="13"/>
+        <v>-29</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="13"/>
+        <v>-7</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="13"/>
+        <v>-17</v>
+      </c>
+      <c r="V42">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O42">
+        <v>-3</v>
+      </c>
+      <c r="W42">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P42">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>-1</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="11"/>
+      <c r="Y42">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="3"/>
         <v>-21</v>
       </c>
-      <c r="S42">
-        <f t="shared" si="11"/>
+      <c r="AA42">
+        <f t="shared" si="4"/>
         <v>-29</v>
       </c>
-      <c r="T42">
-        <f t="shared" si="11"/>
+      <c r="AB42">
+        <f t="shared" si="5"/>
         <v>-7</v>
       </c>
-      <c r="U42">
-        <f t="shared" si="11"/>
+      <c r="AC42">
+        <f t="shared" si="6"/>
         <v>-17</v>
       </c>
-      <c r="V42">
-        <f t="shared" si="12"/>
+      <c r="AD42">
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
-      <c r="W42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="Z42">
-        <f t="shared" si="4"/>
-        <v>-21</v>
-      </c>
-      <c r="AA42">
-        <f t="shared" si="5"/>
-        <v>-29</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="6"/>
-        <v>-7</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="7"/>
-        <v>-17</v>
-      </c>
-      <c r="AD42">
+      <c r="AE42">
         <f t="shared" si="8"/>
-        <v>-3</v>
-      </c>
-      <c r="AE42">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4352,95 +4169,95 @@
         <v>-2</v>
       </c>
       <c r="M43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N43">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="O43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q43">
         <v>-2</v>
       </c>
       <c r="R43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="U43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="V43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y43">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="Z43">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
-      <c r="Z43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB43">
+      <c r="AC43">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <f t="shared" si="7"/>
-        <v>-2</v>
-      </c>
-      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R44">
         <f>SUM(R25:R43)</f>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="shared" ref="S44:U44" si="17">SUM(S25:S43)</f>
+        <f t="shared" ref="S44:U44" si="16">SUM(S25:S43)</f>
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V44">
@@ -4456,23 +4273,23 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <f t="shared" ref="AA44:AE44" si="18">SUM(AA25:AA43)</f>
+        <f t="shared" ref="AA44:AE44" si="17">SUM(AA25:AA43)</f>
         <v>0</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5945,6 +5762,10 @@
   <mergeCells count="1">
     <mergeCell ref="B23:G23"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="W4:W16 W17:W22" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Network.xlsx
+++ b/Network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cortbreuer/Desktop/Storage/Cornell/Junior Spring 2021/CHEME 5440/Problem Sets/Problem Set 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35061D4-07D7-EE41-84D6-9880F10EAEFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6390F-58EF-034D-8EDE-61305E19578F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="3060" windowWidth="27640" windowHeight="16940" xr2:uid="{379B21F9-82EB-AF42-A745-AB6F00DAD8C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>b1</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>b15</t>
-  </si>
-  <si>
-    <t>b16</t>
   </si>
   <si>
     <t>Hydrogen</t>
@@ -566,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC1012-8B2A-0F43-BFCB-3CCC7650DDEE}">
   <dimension ref="A1:AG107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="K53" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,21 +648,18 @@
         <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W2" s="1"/>
@@ -673,7 +667,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V3" s="1"/>
     </row>
@@ -736,16 +730,13 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f>SUM(R4:V4)</f>
+        <f>SUM(Q4:U4)</f>
         <v>-1</v>
       </c>
     </row>
@@ -799,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -814,10 +805,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ref="W5:W22" si="0">SUM(R5:V5)</f>
+        <f t="shared" ref="V5:V22" si="0">SUM(Q5:U5)</f>
         <v>-1</v>
       </c>
     </row>
@@ -874,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -886,9 +874,6 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -949,18 +934,15 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1015,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1030,9 +1012,6 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1087,24 +1066,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V9">
-        <v>-2</v>
-      </c>
-      <c r="W9">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -1129,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1159,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1174,9 +1150,6 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1204,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1231,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1246,9 +1219,6 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1303,13 +1273,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1318,9 +1288,6 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1378,28 +1345,25 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1423,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1459,12 +1423,9 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1498,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1525,18 +1486,15 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V15">
-        <v>-2</v>
-      </c>
-      <c r="W15">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
@@ -1597,19 +1555,16 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <f>SUM(R16:V16)</f>
+        <f>SUM(Q16:U16)</f>
         <v>0</v>
       </c>
     </row>
@@ -1645,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1672,15 +1627,12 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1720,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1747,12 +1699,9 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1795,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1819,12 +1768,9 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1870,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1891,12 +1837,9 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1945,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1963,12 +1906,9 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V21">
-        <v>-1</v>
-      </c>
-      <c r="W21">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2020,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2035,12 +1975,9 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V22">
-        <v>-2</v>
-      </c>
-      <c r="W22">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -2085,7 +2022,7 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -2097,7 +2034,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -2115,25 +2052,25 @@
         <v>8</v>
       </c>
       <c r="M24" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" t="s">
         <v>50</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>51</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>52</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>53</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>54</v>
       </c>
       <c r="R24" t="s">
         <v>29</v>
       </c>
       <c r="S24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s">
         <v>31</v>
@@ -2145,16 +2082,16 @@
         <v>32</v>
       </c>
       <c r="W24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z24" t="s">
         <v>29</v>
       </c>
       <c r="AA24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB24" t="s">
         <v>31</v>
@@ -2166,7 +2103,7 @@
         <v>32</v>
       </c>
       <c r="AE24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
@@ -3261,7 +3198,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -4242,7 +4179,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R44">
         <f>SUM(R25:R43)</f>
@@ -5754,6 +5691,1486 @@
       </c>
       <c r="Z65">
         <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>-1</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>-1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>-1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>-1</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>-1</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>-1</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>-1</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>6</v>
+      </c>
+      <c r="H87">
+        <v>7</v>
+      </c>
+      <c r="I87">
+        <v>8</v>
+      </c>
+      <c r="J87">
+        <v>9</v>
+      </c>
+      <c r="K87">
+        <v>10</v>
+      </c>
+      <c r="L87">
+        <v>11</v>
+      </c>
+      <c r="M87">
+        <v>12</v>
+      </c>
+      <c r="N87">
+        <v>13</v>
+      </c>
+      <c r="O87">
+        <v>14</v>
+      </c>
+      <c r="P87">
+        <v>15</v>
+      </c>
+      <c r="Q87">
+        <v>16</v>
+      </c>
+      <c r="R87">
+        <v>17</v>
+      </c>
+      <c r="S87">
+        <v>18</v>
+      </c>
+      <c r="T87">
+        <v>19</v>
+      </c>
+      <c r="U87">
+        <v>20</v>
+      </c>
+      <c r="V87">
+        <v>21</v>
+      </c>
+      <c r="W87">
+        <v>22</v>
+      </c>
+      <c r="X87">
+        <v>23</v>
+      </c>
+      <c r="Y87">
+        <v>24</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5764,8 +7181,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="W4:W16 W17:W22" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Network.xlsx
+++ b/Network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cortbreuer/Desktop/Storage/Cornell/Junior Spring 2021/CHEME 5440/Problem Sets/Problem Set 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6390F-58EF-034D-8EDE-61305E19578F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AB7F77-DA35-EA40-B1B9-261E8414D069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="3060" windowWidth="27640" windowHeight="16940" xr2:uid="{379B21F9-82EB-AF42-A745-AB6F00DAD8C8}"/>
   </bookViews>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC1012-8B2A-0F43-BFCB-3CCC7650DDEE}">
   <dimension ref="A1:AG107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K53" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Network.xlsx
+++ b/Network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cortbreuer/Desktop/Storage/Cornell/Junior Spring 2021/CHEME 5440/Problem Sets/Problem Set 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AB7F77-DA35-EA40-B1B9-261E8414D069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9BE2F-DC0D-2644-87A9-25A0061EBD82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="3060" windowWidth="27640" windowHeight="16940" xr2:uid="{379B21F9-82EB-AF42-A745-AB6F00DAD8C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>b1</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>b14</t>
-  </si>
-  <si>
-    <t>b15</t>
   </si>
   <si>
     <t>Hydrogen</t>
@@ -561,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC1012-8B2A-0F43-BFCB-3CCC7650DDEE}">
-  <dimension ref="A1:AG107"/>
+  <dimension ref="A1:AG106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:U22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T4" sqref="B4:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,21 +642,18 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W2" s="1"/>
@@ -667,7 +661,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V3" s="1"/>
     </row>
@@ -727,16 +721,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <f>SUM(Q4:U4)</f>
+        <f>SUM(P4:T4)</f>
         <v>-1</v>
       </c>
     </row>
@@ -787,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -802,10 +793,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f t="shared" ref="V5:V22" si="0">SUM(Q5:U5)</f>
+        <f t="shared" ref="U5:U21" si="0">SUM(P5:T5)</f>
         <v>-1</v>
       </c>
     </row>
@@ -859,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -871,9 +859,6 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -931,18 +916,15 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -994,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1009,9 +991,6 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1063,24 +1042,21 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U9">
-        <v>-2</v>
-      </c>
-      <c r="V9">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -1132,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1147,9 +1123,6 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1201,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1216,9 +1189,6 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1270,13 +1240,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1285,9 +1255,6 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1342,28 +1309,25 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1414,25 +1378,22 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1459,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1483,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>-1</v>
@@ -1492,361 +1453,343 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>-2</v>
-      </c>
-      <c r="V15">
+        <f>SUM(P15:T15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>-3</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>-1</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <f>SUM(Q16:U16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1903,233 +1846,270 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U21">
-        <v>-1</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>-2</v>
-      </c>
-      <c r="V22">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+    </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>52</v>
+      </c>
+      <c r="R23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="I24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>5</v>
       </c>
-      <c r="J24" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" t="s">
-        <v>50</v>
-      </c>
-      <c r="O24" t="s">
-        <v>51</v>
-      </c>
-      <c r="P24" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>53</v>
-      </c>
-      <c r="R24" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" t="s">
-        <v>44</v>
-      </c>
-      <c r="T24" t="s">
-        <v>31</v>
-      </c>
-      <c r="U24" t="s">
-        <v>30</v>
-      </c>
-      <c r="V24" t="s">
-        <v>32</v>
-      </c>
-      <c r="W24" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>45</v>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>H24</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>I24</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>J24</f>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>K24</f>
+        <v>-1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ref="R24:W24" si="1">B24*($M24+$N24+$O24+$P24+$Q24)</f>
+        <v>-1</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" ref="Y24:Y42" si="2">SUM(M24:Q24)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" ref="Z24:Z42" si="3">$Y24*B24</f>
+        <v>-1</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" ref="AA24:AA42" si="4">$Y24*C24</f>
+        <v>-4</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" ref="AB24:AB42" si="5">$Y24*D24</f>
+        <v>-1</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" ref="AC24:AC42" si="6">$Y24*E24</f>
+        <v>-5</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" ref="AD24:AD42" si="7">$Y24*F24</f>
+        <v>-1</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" ref="AE24:AE42" si="8">$Y24*G24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>4</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2138,95 +2118,95 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <f>H25</f>
-        <v>0</v>
+        <f t="shared" ref="M25:M42" si="9">H25</f>
+        <v>-1</v>
       </c>
       <c r="N25">
-        <f>I25</f>
+        <f t="shared" ref="N25:N42" si="10">I25</f>
         <v>0</v>
       </c>
       <c r="O25">
-        <f>J25</f>
+        <f t="shared" ref="O25:O42" si="11">J25</f>
         <v>0</v>
       </c>
       <c r="P25">
-        <f>K25</f>
-        <v>-1</v>
+        <f t="shared" ref="P25:P42" si="12">K25</f>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" ref="R25:W25" si="1">B25*($M25+$N25+$O25+$P25+$Q25)</f>
-        <v>-1</v>
+        <f t="shared" ref="R25:U42" si="13">B25*($M25+$N25+$O25+$P25+$Q25)</f>
+        <v>-4</v>
       </c>
       <c r="S25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
+        <v>-7</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="13"/>
         <v>-4</v>
       </c>
-      <c r="T25">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
       <c r="V25">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" ref="V25:V42" si="14">F25*($M25+$N25+$O25+$P25+$Q25)</f>
+        <v>0</v>
       </c>
       <c r="W25">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="W25:W42" si="15">G25*($M25+$N25+$O25+$P25+$Q25)</f>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f t="shared" ref="Y25:Y43" si="2">SUM(M25:Q25)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="Z25">
-        <f t="shared" ref="Z25:Z43" si="3">$Y25*B25</f>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>-4</v>
       </c>
       <c r="AA25">
-        <f t="shared" ref="AA25:AA43" si="4">$Y25*C25</f>
+        <f t="shared" si="4"/>
+        <v>-7</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="AB25">
-        <f t="shared" ref="AB25:AB43" si="5">$Y25*D25</f>
-        <v>-1</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" ref="AC25:AC43" si="6">$Y25*E25</f>
-        <v>-5</v>
-      </c>
       <c r="AD25">
-        <f t="shared" ref="AD25:AD43" si="7">$Y25*F25</f>
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <f t="shared" ref="AE25:AE43" si="8">$Y25*G25</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -2238,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2253,67 +2233,67 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26:M43" si="9">H26</f>
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26:N43" si="10">I26</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26:O43" si="11">J26</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" ref="P26:P43" si="12">K26</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" ref="R26:U43" si="13">B26*($M26+$N26+$O26+$P26+$Q26)</f>
-        <v>-4</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="S26">
         <f t="shared" si="13"/>
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="T26">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <f t="shared" si="13"/>
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="V26">
-        <f t="shared" ref="V26:V43" si="14">F26*($M26+$N26+$O26+$P26+$Q26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W26">
-        <f t="shared" ref="W26:W43" si="15">G26*($M26+$N26+$O26+$P26+$Q26)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y26">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z26">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AA26">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="AB26">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <f t="shared" si="6"/>
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="AD26">
         <f t="shared" si="7"/>
@@ -2326,19 +2306,19 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2350,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2367,11 +2347,11 @@
       </c>
       <c r="N27">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <f t="shared" si="12"/>
@@ -2382,7 +2362,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S27">
         <f t="shared" si="13"/>
@@ -2390,11 +2370,11 @@
       </c>
       <c r="T27">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U27">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V27">
         <f t="shared" si="14"/>
@@ -2410,7 +2390,7 @@
       </c>
       <c r="Z27">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA27">
         <f t="shared" si="4"/>
@@ -2418,11 +2398,11 @@
       </c>
       <c r="AB27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC27">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD27">
         <f t="shared" si="7"/>
@@ -2435,34 +2415,34 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2472,7 +2452,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N28">
         <f t="shared" si="10"/>
@@ -2480,7 +2460,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <f t="shared" si="12"/>
@@ -2491,23 +2471,23 @@
       </c>
       <c r="R28">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="S28">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>-16</v>
       </c>
       <c r="T28">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="U28">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="V28">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="W28">
         <f t="shared" si="15"/>
@@ -2515,27 +2495,27 @@
       </c>
       <c r="Y28">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="AA28">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>-16</v>
       </c>
       <c r="AB28">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="AC28">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="AD28">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AE28">
         <f t="shared" si="8"/>
@@ -2544,22 +2524,22 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
         <v>13</v>
       </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>16</v>
-      </c>
       <c r="D29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2574,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M29">
         <f t="shared" si="9"/>
@@ -2592,31 +2572,31 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>K29</f>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R29">
         <f t="shared" si="13"/>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="S29">
         <f t="shared" si="13"/>
-        <v>-16</v>
+        <v>-26</v>
       </c>
       <c r="T29">
         <f t="shared" si="13"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="U29">
         <f t="shared" si="13"/>
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="V29">
         <f t="shared" si="14"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="W29">
         <f t="shared" si="15"/>
@@ -2624,27 +2604,27 @@
       </c>
       <c r="Y29">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z29">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="AA29">
         <f t="shared" si="4"/>
-        <v>-16</v>
+        <v>-26</v>
       </c>
       <c r="AB29">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AC29">
         <f t="shared" si="6"/>
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="AD29">
         <f t="shared" si="7"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AE29">
         <f t="shared" si="8"/>
@@ -2653,28 +2633,28 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
         <v>14</v>
       </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>13</v>
-      </c>
       <c r="D30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2683,14 +2663,14 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <f t="shared" si="10"/>
@@ -2702,30 +2682,30 @@
       </c>
       <c r="P30">
         <f>K30</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <f t="shared" si="13"/>
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="S30">
         <f t="shared" si="13"/>
-        <v>-26</v>
+        <v>14</v>
       </c>
       <c r="T30">
         <f t="shared" si="13"/>
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="U30">
         <f t="shared" si="13"/>
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="V30">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
         <f t="shared" si="15"/>
@@ -2733,27 +2713,27 @@
       </c>
       <c r="Y30">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="Z30">
         <f t="shared" si="3"/>
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="AA30">
         <f t="shared" si="4"/>
-        <v>-26</v>
+        <v>14</v>
       </c>
       <c r="AB30">
         <f t="shared" si="5"/>
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="AC30">
         <f t="shared" si="6"/>
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="AD30">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30">
         <f t="shared" si="8"/>
@@ -2762,22 +2742,22 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>7</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2810,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <f>K31</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q31">
@@ -2818,15 +2798,15 @@
       </c>
       <c r="R31">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="T31">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <f t="shared" si="13"/>
@@ -2834,7 +2814,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <f t="shared" si="15"/>
@@ -2846,15 +2826,15 @@
       </c>
       <c r="Z31">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AB31">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC31">
         <f t="shared" si="6"/>
@@ -2862,7 +2842,7 @@
       </c>
       <c r="AD31">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE31">
         <f t="shared" si="8"/>
@@ -2871,22 +2851,22 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32">
         <v>4</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2895,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2912,7 +2892,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O32">
         <f t="shared" si="11"/>
@@ -2931,7 +2911,7 @@
       </c>
       <c r="S32">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <f t="shared" si="13"/>
@@ -2939,11 +2919,11 @@
       </c>
       <c r="U32">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W32">
         <f t="shared" si="15"/>
@@ -2951,7 +2931,7 @@
       </c>
       <c r="Y32">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <f t="shared" si="3"/>
@@ -2959,7 +2939,7 @@
       </c>
       <c r="AA32">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <f t="shared" si="5"/>
@@ -2967,11 +2947,11 @@
       </c>
       <c r="AC32">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD32">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE32">
         <f t="shared" si="8"/>
@@ -2980,19 +2960,19 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3001,13 +2981,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3017,15 +2997,15 @@
       </c>
       <c r="M33">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P33">
         <f t="shared" si="12"/>
@@ -3089,7 +3069,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -3101,28 +3081,28 @@
         <v>4</v>
       </c>
       <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>-1</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
       </c>
       <c r="M34">
         <f t="shared" si="9"/>
@@ -3130,34 +3110,34 @@
       </c>
       <c r="N34">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S34">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="T34">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U34">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V34">
         <f t="shared" si="14"/>
@@ -3169,23 +3149,23 @@
       </c>
       <c r="Y34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD34">
         <f t="shared" si="7"/>
@@ -3198,19 +3178,19 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3225,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M35">
         <f t="shared" si="9"/>
@@ -3243,30 +3223,30 @@
       </c>
       <c r="O35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P35">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R35">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S35">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>-6</v>
       </c>
       <c r="T35">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="V35">
         <f t="shared" si="14"/>
@@ -3278,23 +3258,23 @@
       </c>
       <c r="Y35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="Z35">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>-6</v>
       </c>
       <c r="AB35">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC35">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="AD35">
         <f t="shared" si="7"/>
@@ -3307,19 +3287,19 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
         <v>2</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3334,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L36">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <f t="shared" si="9"/>
@@ -3352,14 +3332,14 @@
       </c>
       <c r="O36">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q36">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R36">
         <f t="shared" si="13"/>
@@ -3367,7 +3347,7 @@
       </c>
       <c r="S36">
         <f t="shared" si="13"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <f t="shared" si="13"/>
@@ -3375,7 +3355,7 @@
       </c>
       <c r="U36">
         <f t="shared" si="13"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <f t="shared" si="14"/>
@@ -3387,7 +3367,7 @@
       </c>
       <c r="Y36">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <f t="shared" si="3"/>
@@ -3395,7 +3375,7 @@
       </c>
       <c r="AA36">
         <f t="shared" si="4"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AB36">
         <f t="shared" si="5"/>
@@ -3403,7 +3383,7 @@
       </c>
       <c r="AC36">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AD36">
         <f t="shared" si="7"/>
@@ -3416,22 +3396,22 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3443,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3461,11 +3441,11 @@
       </c>
       <c r="O37">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37">
         <f t="shared" si="12"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3476,7 +3456,7 @@
       </c>
       <c r="S37">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T37">
         <f t="shared" si="13"/>
@@ -3484,11 +3464,11 @@
       </c>
       <c r="U37">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V37">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
         <f t="shared" si="15"/>
@@ -3496,7 +3476,7 @@
       </c>
       <c r="Y37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
         <f t="shared" si="3"/>
@@ -3504,7 +3484,7 @@
       </c>
       <c r="AA37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB37">
         <f t="shared" si="5"/>
@@ -3512,11 +3492,11 @@
       </c>
       <c r="AC37">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37">
         <f t="shared" si="8"/>
@@ -3525,23 +3505,23 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
         <v>21</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
       <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>17</v>
+      </c>
+      <c r="F38">
         <v>3</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
       <c r="G38">
         <v>0</v>
       </c>
@@ -3555,10 +3535,10 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <f t="shared" si="9"/>
@@ -3574,30 +3554,30 @@
       </c>
       <c r="P38">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S38">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="T38">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U38">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="V38">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W38">
         <f t="shared" si="15"/>
@@ -3609,23 +3589,23 @@
       </c>
       <c r="Z38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA38">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AB38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC38">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AD38">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE38">
         <f t="shared" si="8"/>
@@ -3634,22 +3614,22 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3667,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39">
         <f t="shared" si="9"/>
@@ -3686,27 +3666,27 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R39">
         <f t="shared" si="13"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <f t="shared" si="13"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T39">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="V39">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W39">
         <f t="shared" si="15"/>
@@ -3714,27 +3694,27 @@
       </c>
       <c r="Y39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z39">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB39">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC39">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AD39">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE39">
         <f t="shared" si="8"/>
@@ -3743,19 +3723,19 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3776,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <f t="shared" si="9"/>
@@ -3795,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <f t="shared" si="13"/>
@@ -3803,7 +3783,7 @@
       </c>
       <c r="S40">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
         <f t="shared" si="13"/>
@@ -3811,7 +3791,7 @@
       </c>
       <c r="U40">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <f t="shared" si="14"/>
@@ -3823,7 +3803,7 @@
       </c>
       <c r="Y40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z40">
         <f t="shared" si="3"/>
@@ -3831,7 +3811,7 @@
       </c>
       <c r="AA40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <f t="shared" si="5"/>
@@ -3839,7 +3819,7 @@
       </c>
       <c r="AC40">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD40">
         <f t="shared" si="7"/>
@@ -3852,22 +3832,22 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3885,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M41">
         <f t="shared" si="9"/>
@@ -3904,27 +3884,27 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R41">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="S41">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>-29</v>
       </c>
       <c r="T41">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="U41">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="V41">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="W41">
         <f t="shared" si="15"/>
@@ -3932,27 +3912,27 @@
       </c>
       <c r="Y41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="AA41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>-29</v>
       </c>
       <c r="AB41">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="AC41">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AD41">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AE41">
         <f t="shared" si="8"/>
@@ -3961,22 +3941,22 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3994,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M42">
         <f t="shared" si="9"/>
@@ -4013,27 +3993,27 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R42">
         <f t="shared" si="13"/>
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <f t="shared" si="13"/>
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="T42">
         <f t="shared" si="13"/>
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="U42">
         <f t="shared" si="13"/>
-        <v>-17</v>
+        <v>-2</v>
       </c>
       <c r="V42">
         <f t="shared" si="14"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="W42">
         <f t="shared" si="15"/>
@@ -4041,27 +4021,27 @@
       </c>
       <c r="Y42">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z42">
         <f t="shared" si="3"/>
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AA42">
         <f t="shared" si="4"/>
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="AB42">
         <f t="shared" si="5"/>
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AC42">
         <f t="shared" si="6"/>
-        <v>-17</v>
+        <v>-2</v>
       </c>
       <c r="AD42">
         <f t="shared" si="7"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AE42">
         <f t="shared" si="8"/>
@@ -4070,172 +4050,140 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>-2</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>-2</v>
+        <v>46</v>
       </c>
       <c r="R43">
-        <f t="shared" si="13"/>
+        <f>SUM(R24:R42)</f>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="S43:U43" si="16">SUM(S24:S42)</f>
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="shared" si="13"/>
-        <v>-2</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="U43">
-        <f t="shared" si="13"/>
-        <v>-2</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="V43">
-        <f t="shared" si="14"/>
+        <f>SUM(V24:V42)</f>
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" si="2"/>
-        <v>-2</v>
+        <f>SUM(W24:W42)</f>
+        <v>0</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="3"/>
+        <f>SUM(Z24:Z42)</f>
         <v>0</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AA43:AE43" si="17">SUM(AA24:AA42)</f>
         <v>0</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="5"/>
-        <v>-2</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="6"/>
-        <v>-2</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="R44">
-        <f>SUM(R25:R43)</f>
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <f t="shared" ref="S44:U44" si="16">SUM(S25:S43)</f>
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <f>SUM(V25:V43)</f>
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <f>SUM(W25:W43)</f>
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <f>SUM(Z25:Z43)</f>
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <f t="shared" ref="AA44:AE44" si="17">SUM(AA25:AA43)</f>
-        <v>0</v>
-      </c>
-      <c r="AB44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AC44">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <f t="shared" si="17"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4289,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -4298,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -4312,10 +4260,10 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4366,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -4392,10 +4340,10 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4446,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4472,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4520,13 +4468,13 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -4552,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4606,13 +4554,13 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.2">
@@ -4632,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -4674,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -4683,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.2">
@@ -4712,10 +4660,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -4792,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4831,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -4905,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -4955,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -4985,19 +4933,19 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X56">
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.2">
@@ -5032,49 +4980,49 @@
         <v>0</v>
       </c>
       <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
         <v>-2</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>2</v>
-      </c>
-      <c r="Z57">
-        <v>-2</v>
       </c>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.2">
@@ -5112,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -5142,16 +5090,16 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.2">
@@ -5195,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -5219,10 +5167,10 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -5272,10 +5220,10 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -5299,13 +5247,13 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.2">
@@ -5352,10 +5300,10 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5379,10 +5327,10 @@
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.2">
@@ -5432,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -5456,10 +5404,10 @@
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z62">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.2">
@@ -5512,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -5533,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.2">
@@ -5592,10 +5540,10 @@
         <v>0</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U64">
         <v>0</v>
@@ -5610,904 +5558,901 @@
         <v>0</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
         <v>2</v>
       </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>-1</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>-1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>-1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>-1</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>-1</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="Y71">
         <v>-2</v>
       </c>
-      <c r="Z65">
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>-1</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>-1</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>-1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>1</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>-1</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>-1</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>-1</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>1</v>
-      </c>
-      <c r="Y72">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
         <v>-2</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>1</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>1</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>1</v>
-      </c>
-      <c r="V75">
-        <v>-1</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>1</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>0</v>
       </c>
@@ -6542,10 +6487,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -6572,16 +6517,16 @@
         <v>0</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>0</v>
       </c>
@@ -6619,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -6646,16 +6591,16 @@
         <v>0</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>0</v>
       </c>
@@ -6696,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -6723,10 +6668,10 @@
         <v>0</v>
       </c>
       <c r="X80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:25" x14ac:dyDescent="0.2">
@@ -6773,10 +6718,10 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -6800,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="Y81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="2:25" x14ac:dyDescent="0.2">
@@ -6850,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -6874,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="Y82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="2:25" x14ac:dyDescent="0.2">
@@ -6927,10 +6872,10 @@
         <v>0</v>
       </c>
       <c r="R83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -6948,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="Y83">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="2:25" x14ac:dyDescent="0.2">
@@ -7004,10 +6949,10 @@
         <v>0</v>
       </c>
       <c r="S84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84">
         <v>0</v>
@@ -7022,162 +6967,88 @@
         <v>0</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <v>1</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <v>0</v>
-      </c>
-      <c r="Y85">
         <v>-2</v>
       </c>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
         <v>2</v>
       </c>
-      <c r="D87">
+      <c r="D86">
         <v>3</v>
       </c>
-      <c r="E87">
+      <c r="E86">
         <v>4</v>
       </c>
-      <c r="F87">
+      <c r="F86">
         <v>5</v>
       </c>
-      <c r="G87">
+      <c r="G86">
         <v>6</v>
       </c>
-      <c r="H87">
+      <c r="H86">
         <v>7</v>
       </c>
-      <c r="I87">
+      <c r="I86">
         <v>8</v>
       </c>
-      <c r="J87">
+      <c r="J86">
         <v>9</v>
       </c>
-      <c r="K87">
+      <c r="K86">
         <v>10</v>
       </c>
-      <c r="L87">
+      <c r="L86">
         <v>11</v>
       </c>
-      <c r="M87">
+      <c r="M86">
         <v>12</v>
       </c>
-      <c r="N87">
+      <c r="N86">
         <v>13</v>
       </c>
-      <c r="O87">
+      <c r="O86">
         <v>14</v>
       </c>
-      <c r="P87">
+      <c r="P86">
         <v>15</v>
       </c>
-      <c r="Q87">
+      <c r="Q86">
         <v>16</v>
       </c>
-      <c r="R87">
+      <c r="R86">
         <v>17</v>
       </c>
-      <c r="S87">
+      <c r="S86">
         <v>18</v>
       </c>
-      <c r="T87">
+      <c r="T86">
         <v>19</v>
       </c>
-      <c r="U87">
+      <c r="U86">
         <v>20</v>
       </c>
-      <c r="V87">
+      <c r="V86">
         <v>21</v>
       </c>
-      <c r="W87">
+      <c r="W86">
         <v>22</v>
       </c>
-      <c r="X87">
+      <c r="X86">
         <v>23</v>
       </c>
-      <c r="Y87">
+      <c r="Y86">
         <v>24</v>
       </c>
     </row>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B22:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
